--- a/extras/CovidAesiReporting/extras/Censorship Worksheet.xlsx
+++ b/extras/CovidAesiReporting/extras/Censorship Worksheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25131"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ohdsiorg.sharepoint.com/sites/VaccineSafety/Shared Documents/COVID Subjects AESI Characterization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\BitBucket\epi_974\Covid19SubjectsAesiIncidenceRate\extras\CovidAesiReporting\extras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="822" documentId="13_ncr:1_{DB3C6136-835B-46CD-832B-B662C6120D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DABA8D49-9F9D-4588-B3FE-4B4329DDA359}"/>
   <bookViews>
-    <workbookView xWindow="-33360" yWindow="1155" windowWidth="28800" windowHeight="15555" firstSheet="1" activeTab="1" xr2:uid="{EF457D2D-8517-4070-9E12-459025A48579}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38100" windowHeight="15240" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PHENOTYPE CENSORSHIP KEY" sheetId="3" r:id="rId1"/>
@@ -21,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Table 1 Draft'!$A$1:$J$31</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={177A459B-659B-42A7-9540-9A093381EDA7}</author>
     <author>tc={BB3C6706-2B60-4215-8B0E-7C1893B8665E}</author>
@@ -63,108 +62,224 @@
     <author>tc={BE9E5AD4-BD47-47F5-A0F0-1858BA6BBD16}</author>
   </authors>
   <commentList>
-    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{177A459B-659B-42A7-9540-9A093381EDA7}">
+    <comment ref="B25" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Hope to get a rerun and fix this issue.</t>
+        </r>
       </text>
     </comment>
-    <comment ref="G25" authorId="1" shapeId="0" xr:uid="{BB3C6706-2B60-4215-8B0E-7C1893B8665E}">
+    <comment ref="G25" authorId="1" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This should be fixed in rerun</t>
+        </r>
       </text>
     </comment>
-    <comment ref="J25" authorId="2" shapeId="0" xr:uid="{56E4A474-8AA0-4613-9E54-407860E5999E}">
+    <comment ref="J25" authorId="2" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     If we get a rerun this should be fixed</t>
+        </r>
       </text>
     </comment>
-    <comment ref="Q26" authorId="3" shapeId="0" xr:uid="{20D23A7A-49C6-4B5D-BE9C-40F1A73CC3D9}">
+    <comment ref="Q26" authorId="3" shapeId="0">
       <text>
-        <t>Erica Voss:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Erica Voss:
 We can see we are missing ICD9 but that won't impact us here</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="4" shapeId="0" xr:uid="{6D55A5D5-3915-4137-83BA-C55866078943}">
+    <comment ref="B27" authorId="4" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This is probably already know, but wanted to confirm that we do not have tests run outside of our health system.</t>
+        </r>
       </text>
     </comment>
-    <comment ref="W27" authorId="5" shapeId="0" xr:uid="{909E7E17-0374-4732-B8E3-8A0A8B3D99FC}">
+    <comment ref="W27" authorId="5" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     orphan code: Secondary thrombocytopenia (12K patients, but don’t know if it should be a code that is used)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B29" authorId="6" shapeId="0" xr:uid="{FF199EB7-858F-4113-9E89-A65346E0A6B1}">
+    <comment ref="B29" authorId="6" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     many 'no matching concept' in visit context</t>
+        </r>
       </text>
     </comment>
-    <comment ref="H29" authorId="7" shapeId="0" xr:uid="{0005A38C-4D21-482A-8CBB-D291B3D50003}">
+    <comment ref="H29" authorId="7" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     no inpt visit / ed + inpt in 'concepts in data source'? (but then can be seen in 'visit context')
 Reply:
     consider oprhan 44835946 Intracerebral hemorrhage</t>
+        </r>
       </text>
     </comment>
-    <comment ref="I29" authorId="8" shapeId="0" xr:uid="{8FE41481-E541-45CC-8FCD-7109F1F02E4D}">
+    <comment ref="I29" authorId="8" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     several ophran concepts noting deficits or sequellae</t>
+        </r>
       </text>
     </comment>
-    <comment ref="J29" authorId="9" shapeId="0" xr:uid="{DC2D4F3D-CA88-4CF4-AD81-40204B96463D}">
+    <comment ref="J29" authorId="9" shapeId="0">
       <text>
-        <t xml:space="preserve">[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     dvt in pregnancy excluded
 Reply:
     44833591Other venous embolism and thrombosis of unspecified site included
 </t>
+        </r>
       </text>
     </comment>
-    <comment ref="K29" authorId="10" shapeId="0" xr:uid="{6E702BC7-E3E3-439A-A142-7832935525B0}">
+    <comment ref="K29" authorId="10" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     many fewer than CUIMC - referral pattern?</t>
+        </r>
       </text>
     </comment>
-    <comment ref="M29" authorId="11" shapeId="0" xr:uid="{2EC26AB5-2A6F-41A0-97DC-9D9554DF0D43}">
+    <comment ref="M29" authorId="11" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     possible oprhan 44823002 Postinfectious myelitis; but &lt;5%; may not be specific to TM</t>
+        </r>
       </text>
     </comment>
-    <comment ref="N29" authorId="12" shapeId="0" xr:uid="{ED010451-418F-4ED9-A869-AEA40D14FBD5}">
+    <comment ref="N29" authorId="12" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     ~234 in missing concept 4221182 in orphan concepts
@@ -172,50 +287,96 @@
 3674 in broad definition (per ATLAS)
 Reply:
     Do we want concepts related to 'anaphylactic shock due to serum'? (low numbers, unlikely a big effect)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="Q29" authorId="13" shapeId="0" xr:uid="{846A8CF6-5A82-4804-BC9F-92FF5C7123D6}">
+    <comment ref="Q29" authorId="13" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     includes inflammatory disease of CNS (broad?).  is ADEM the desired entity?</t>
+        </r>
       </text>
     </comment>
-    <comment ref="R29" authorId="14" shapeId="0" xr:uid="{0D6A597E-7E8A-4508-A95A-4073D4AF9C8E}">
+    <comment ref="R29" authorId="14" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     number of hospital / inpatient visits is odd - sleep center in hosp?
 Reply:
     Not as many PSG as would be expected for formal Dx. - may not be captured..</t>
+        </r>
       </text>
     </comment>
-    <comment ref="S29" authorId="15" shapeId="0" xr:uid="{E1DD98FB-A323-4BBF-986E-D90E82342867}">
+    <comment ref="S29" authorId="15" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     oprhan 45576604Sequelae of Guillain-Barre syndrome (46 subjects)</t>
+        </r>
       </text>
     </comment>
-    <comment ref="V29" authorId="16" shapeId="0" xr:uid="{C0162389-4798-4CA3-9A85-1750BC066FAD}">
+    <comment ref="V29" authorId="16" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     ITP type concepts are combined with drug induced, TTP
 Reply:
     orphan primary thrombocytopenia may be used as a synonym for ITP</t>
+        </r>
       </text>
     </comment>
-    <comment ref="W29" authorId="17" shapeId="0" xr:uid="{BE9E5AD4-BD47-47F5-A0F0-1858BA6BBD16}">
+    <comment ref="W29" authorId="17" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     oprhan 40321716Secondary thrombocytopenia, 44824268Phlebitis and thrombophlebitis of lower extremities, unspecified; (+other thrombophlepbitis terms) 45576412Other secondary thrombocytopenia; 44831071Secondary thrombocytopenia</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -223,7 +384,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="136">
   <si>
     <t>Censorship Key</t>
   </si>
@@ -622,13 +783,22 @@
   </si>
   <si>
     <t>† COVID + Controls</t>
+  </si>
+  <si>
+    <t>Health Verity Vaccine</t>
+  </si>
+  <si>
+    <t>CVST IP Events</t>
+  </si>
+  <si>
+    <t>CVST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -951,14 +1121,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1012,7 +1182,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1413,28 +1583,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978B94D7-5CA9-4DC4-8B96-3DE76F2A12CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.42578125" style="19"/>
     <col min="2" max="3" width="55" style="19" customWidth="1"/>
     <col min="4" max="16384" width="30.42578125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21.75" thickBot="1">
+    <row r="1" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1">
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
@@ -1445,7 +1615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30.75" thickBot="1">
+    <row r="3" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -1454,7 +1624,7 @@
       </c>
       <c r="C3" s="16"/>
     </row>
-    <row r="4" spans="1:3" ht="60.75" thickBot="1">
+    <row r="4" spans="1:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
@@ -1465,7 +1635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="75.75" thickBot="1">
+    <row r="5" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>9</v>
       </c>
@@ -1476,7 +1646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="45.75" thickBot="1">
+    <row r="6" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
@@ -1487,7 +1657,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="75.75" thickBot="1">
+    <row r="7" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
         <v>15</v>
       </c>
@@ -1498,7 +1668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="45.75" thickBot="1">
+    <row r="8" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>18</v>
       </c>
@@ -1509,7 +1679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="75.75" thickBot="1">
+    <row r="9" spans="1:3" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>21</v>
       </c>
@@ -1520,7 +1690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30.75" thickBot="1">
+    <row r="10" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>24</v>
       </c>
@@ -1533,7 +1703,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" location="/cohortdefinition/562" tooltip="https://atlas.ohdsi.org/#/cohortdefinition/562" display="https://atlas.ohdsi.org/ - /cohortdefinition/562" xr:uid="{28D1E6AD-1BCA-40CD-8E95-4B20F0FE04FD}"/>
+    <hyperlink ref="B8" r:id="rId1" location="/cohortdefinition/562" tooltip="https://atlas.ohdsi.org/#/cohortdefinition/562" display="https://atlas.ohdsi.org/ - /cohortdefinition/562"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1541,15 +1711,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E1ADC7B-FEDF-48D2-9429-21F9AC48F094}">
-  <dimension ref="A1:W32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="16.85546875" customWidth="1"/>
@@ -1557,35 +1727,37 @@
     <col min="7" max="23" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="B1" s="44" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B1" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="8"/>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-    </row>
-    <row r="2" spans="1:23">
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+      <c r="U1" s="45"/>
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
@@ -1650,8 +1822,14 @@
       <c r="W2" s="1">
         <v>547</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" s="2" customFormat="1" ht="75">
+      <c r="X2" s="1">
+        <v>620</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>6246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>37</v>
       </c>
@@ -1719,8 +1897,14 @@
       <c r="W3" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" s="2" customFormat="1">
+      <c r="X3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -1754,8 +1938,12 @@
       <c r="U4" s="13"/>
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
-    </row>
-    <row r="5" spans="1:23" ht="34.5" customHeight="1">
+      <c r="X4" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y4" s="13"/>
+    </row>
+    <row r="5" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>60</v>
       </c>
@@ -1821,8 +2009,14 @@
       <c r="W5" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" ht="34.5" customHeight="1">
+      <c r="X5" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>62</v>
       </c>
@@ -1888,8 +2082,14 @@
       <c r="W6" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="34.5" customHeight="1">
+      <c r="X6" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>63</v>
       </c>
@@ -1955,8 +2155,14 @@
       <c r="W7" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" ht="34.5" customHeight="1">
+      <c r="X7" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>64</v>
       </c>
@@ -2022,8 +2228,14 @@
       <c r="W8" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" ht="34.5" customHeight="1">
+      <c r="X8" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>65</v>
       </c>
@@ -2089,8 +2301,14 @@
       <c r="W9" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" ht="34.5" customHeight="1">
+      <c r="X9" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>66</v>
       </c>
@@ -2156,8 +2374,14 @@
       <c r="W10" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" ht="34.5" customHeight="1">
+      <c r="X10" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>67</v>
       </c>
@@ -2223,8 +2447,14 @@
       <c r="W11" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" ht="34.5" customHeight="1">
+      <c r="X11" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y11" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>68</v>
       </c>
@@ -2290,8 +2520,14 @@
       <c r="W12" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" ht="34.5" customHeight="1">
+      <c r="X12" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>69</v>
       </c>
@@ -2357,8 +2593,14 @@
       <c r="W13" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" ht="34.5" customHeight="1">
+      <c r="X13" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>71</v>
       </c>
@@ -2424,8 +2666,14 @@
       <c r="W14" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" ht="30">
+      <c r="X14" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>72</v>
       </c>
@@ -2491,8 +2739,14 @@
       <c r="W15" s="24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" ht="25.5" customHeight="1">
+      <c r="X15" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>74</v>
       </c>
@@ -2558,8 +2812,14 @@
       <c r="W16" s="24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" ht="30">
+      <c r="X16" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>75</v>
       </c>
@@ -2625,8 +2885,14 @@
       <c r="W17" s="24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" ht="30">
+      <c r="X17" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y17" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="27" t="s">
         <v>76</v>
       </c>
@@ -2692,8 +2958,14 @@
       <c r="W18" s="24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>77</v>
       </c>
@@ -2719,8 +2991,14 @@
       <c r="U19" s="22"/>
       <c r="V19" s="22"/>
       <c r="W19" s="22"/>
-    </row>
-    <row r="20" spans="1:23" ht="35.25" customHeight="1">
+      <c r="X19" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y19" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>78</v>
       </c>
@@ -2786,8 +3064,14 @@
       <c r="W20" s="24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" ht="30.75">
+      <c r="X20" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>79</v>
       </c>
@@ -2853,8 +3137,14 @@
       <c r="W21" s="24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" ht="30">
+      <c r="X21" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>80</v>
       </c>
@@ -2920,8 +3210,14 @@
       <c r="W22" s="24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" ht="30">
+      <c r="X22" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y22" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>81</v>
       </c>
@@ -2987,8 +3283,14 @@
       <c r="W23" s="24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" ht="30">
+      <c r="X23" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y23" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>82</v>
       </c>
@@ -3054,8 +3356,14 @@
       <c r="W24" s="24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" ht="30.75">
+      <c r="X24" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y24" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>83</v>
       </c>
@@ -3098,8 +3406,14 @@
       <c r="U25" s="22"/>
       <c r="V25" s="22"/>
       <c r="W25" s="22"/>
-    </row>
-    <row r="26" spans="1:23">
+      <c r="X25" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y25" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
         <v>84</v>
       </c>
@@ -3165,8 +3479,14 @@
       <c r="W26" s="24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:23">
+      <c r="X26" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y26" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>85</v>
       </c>
@@ -3236,8 +3556,14 @@
       <c r="W27" s="33" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" ht="30.75">
+      <c r="X27" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y27" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="27" t="s">
         <v>87</v>
       </c>
@@ -3303,8 +3629,14 @@
       <c r="W28" s="24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:23">
+      <c r="X28" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y28" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>88</v>
       </c>
@@ -3370,8 +3702,14 @@
       <c r="W29" s="24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" ht="30">
+      <c r="X29" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y29" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
         <v>89</v>
       </c>
@@ -3437,8 +3775,14 @@
       <c r="W30" s="24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" ht="30">
+      <c r="X30" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y30" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
         <v>90</v>
       </c>
@@ -3504,8 +3848,14 @@
       <c r="W31" s="24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" ht="30">
+      <c r="X31" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y31" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
         <v>91</v>
       </c>
@@ -3571,11 +3921,90 @@
       <c r="W32" s="24" t="s">
         <v>4</v>
       </c>
+      <c r="X32" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y32" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="25"/>
+      <c r="G33" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="L33" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="M33" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="N33" s="26"/>
+      <c r="O33" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="P33" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="R33" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="S33" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="T33" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="U33" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="V33" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="W33" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="X33" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y33" s="24" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G1:W1"/>
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3584,26 +4013,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D331AA-7600-4278-91CC-04BE0164449A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="19" customFormat="1" ht="21">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:18" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="45"/>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="B1" s="44"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
@@ -3611,7 +4040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>93</v>
       </c>
@@ -3637,7 +4066,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -3693,7 +4122,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -3728,14 +4157,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B80F393-765A-824F-ACED-CA85A16C6F70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="136" zoomScaleNormal="100" zoomScalePageLayoutView="136" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" customWidth="1"/>
@@ -3746,7 +4175,7 @@
     <col min="8" max="9" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="102" customHeight="1">
+    <row r="1" spans="1:10" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>98</v>
       </c>
@@ -3778,7 +4207,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
         <v>78</v>
       </c>
@@ -3789,7 +4218,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
         <v>110</v>
       </c>
@@ -3800,7 +4229,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>84</v>
       </c>
@@ -3811,7 +4240,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
         <v>85</v>
       </c>
@@ -3822,7 +4251,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
         <v>114</v>
       </c>
@@ -3833,7 +4262,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
         <v>79</v>
       </c>
@@ -3844,7 +4273,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
         <v>60</v>
       </c>
@@ -3855,7 +4284,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
         <v>62</v>
       </c>
@@ -3866,7 +4295,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
         <v>63</v>
       </c>
@@ -3877,7 +4306,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
         <v>74</v>
       </c>
@@ -3888,7 +4317,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
         <v>72</v>
       </c>
@@ -3899,7 +4328,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
         <v>68</v>
       </c>
@@ -3910,7 +4339,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
         <v>69</v>
       </c>
@@ -3921,7 +4350,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
         <v>71</v>
       </c>
@@ -3932,7 +4361,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>87</v>
       </c>
@@ -3943,7 +4372,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>67</v>
       </c>
@@ -3954,7 +4383,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
         <v>90</v>
       </c>
@@ -3965,7 +4394,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="41" t="s">
         <v>64</v>
       </c>
@@ -3976,7 +4405,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="41" t="s">
         <v>91</v>
       </c>
@@ -3989,7 +4418,7 @@
       <c r="D20" s="37"/>
       <c r="F20" s="36"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="s">
         <v>65</v>
       </c>
@@ -4000,7 +4429,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="41" t="s">
         <v>66</v>
       </c>
@@ -4011,7 +4440,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
         <v>80</v>
       </c>
@@ -4022,7 +4451,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="41" t="s">
         <v>88</v>
       </c>
@@ -4033,7 +4462,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
         <v>124</v>
       </c>
@@ -4044,7 +4473,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="s">
         <v>82</v>
       </c>
@@ -4055,7 +4484,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="41" t="s">
         <v>127</v>
       </c>
@@ -4066,7 +4495,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="41" t="s">
         <v>83</v>
       </c>
@@ -4077,7 +4506,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="41" t="s">
         <v>129</v>
       </c>
@@ -4088,12 +4517,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="42" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
         <v>132</v>
       </c>
@@ -4106,20 +4535,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="90190796-45ad-4c96-92d3-17e9cee707e0">
-      <UserInfo>
-        <DisplayName>Vaccine Safety Members</DisplayName>
-        <AccountId>7</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F99C753980E8664FBAA371FB8558B22B" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="85d83d6bda4fc08e9bf065863f501aea">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67345901-881c-47f4-87d9-04d39beac4b5" xmlns:ns3="90190796-45ad-4c96-92d3-17e9cee707e0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="61fb9d9247372ca1a13760b2fbba4f4f" ns2:_="" ns3:_="">
     <xsd:import namespace="67345901-881c-47f4-87d9-04d39beac4b5"/>
@@ -4336,7 +4751,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4345,14 +4760,53 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="90190796-45ad-4c96-92d3-17e9cee707e0">
+      <UserInfo>
+        <DisplayName>Vaccine Safety Members</DisplayName>
+        <AccountId>7</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EA9993F-454C-481A-9EAF-5876C98FD002}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26566412-8A72-449D-9C6E-7C3541322229}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="67345901-881c-47f4-87d9-04d39beac4b5"/>
+    <ds:schemaRef ds:uri="90190796-45ad-4c96-92d3-17e9cee707e0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26566412-8A72-449D-9C6E-7C3541322229}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171B7CA1-9B56-435E-B90C-D8382A40D1B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171B7CA1-9B56-435E-B90C-D8382A40D1B3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EA9993F-454C-481A-9EAF-5876C98FD002}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="90190796-45ad-4c96-92d3-17e9cee707e0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/extras/CovidAesiReporting/extras/Censorship Worksheet.xlsx
+++ b/extras/CovidAesiReporting/extras/Censorship Worksheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\BitBucket\epi_974\Covid19SubjectsAesiIncidenceRate\extras\CovidAesiReporting\extras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\GitHub\Covid19SubjectsAesiIncidenceRate\extras\CovidAesiReporting\extras\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38100" windowHeight="15240" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25140" windowHeight="11220" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PHENOTYPE CENSORSHIP KEY" sheetId="3" r:id="rId1"/>
@@ -42,9 +42,6 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>tc={177A459B-659B-42A7-9540-9A093381EDA7}</author>
-    <author>tc={BB3C6706-2B60-4215-8B0E-7C1893B8665E}</author>
-    <author>tc={56E4A474-8AA0-4613-9E54-407860E5999E}</author>
     <author>Erica Voss</author>
     <author>tc={6D55A5D5-3915-4137-83BA-C55866078943}</author>
     <author>tc={909E7E17-0374-4732-B8E3-8A0A8B3D99FC}</author>
@@ -62,58 +59,7 @@
     <author>tc={BE9E5AD4-BD47-47F5-A0F0-1858BA6BBD16}</author>
   </authors>
   <commentList>
-    <comment ref="B25" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Hope to get a rerun and fix this issue.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G25" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This should be fixed in rerun</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J25" authorId="2" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    If we get a rerun this should be fixed</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q26" authorId="3" shapeId="0">
+    <comment ref="Q25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -128,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="4" shapeId="0">
+    <comment ref="B26" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W27" authorId="5" shapeId="0">
+    <comment ref="W26" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B29" authorId="6" shapeId="0">
+    <comment ref="B28" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -179,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H29" authorId="7" shapeId="0">
+    <comment ref="H28" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -198,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I29" authorId="8" shapeId="0">
+    <comment ref="I28" authorId="5" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -215,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J29" authorId="9" shapeId="0">
+    <comment ref="J28" authorId="6" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K29" authorId="10" shapeId="0">
+    <comment ref="K28" authorId="7" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -252,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M29" authorId="11" shapeId="0">
+    <comment ref="M28" authorId="8" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -269,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N29" authorId="12" shapeId="0">
+    <comment ref="N28" authorId="9" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -290,7 +236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q29" authorId="13" shapeId="0">
+    <comment ref="Q28" authorId="10" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -307,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R29" authorId="14" shapeId="0">
+    <comment ref="R28" authorId="11" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -326,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S29" authorId="15" shapeId="0">
+    <comment ref="S28" authorId="12" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -343,7 +289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V29" authorId="16" shapeId="0">
+    <comment ref="V28" authorId="13" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -362,7 +308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W29" authorId="17" shapeId="0">
+    <comment ref="W28" authorId="14" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -384,7 +330,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="133">
   <si>
     <t>Censorship Key</t>
   </si>
@@ -783,15 +729,6 @@
   </si>
   <si>
     <t>† COVID + Controls</t>
-  </si>
-  <si>
-    <t>Health Verity Vaccine</t>
-  </si>
-  <si>
-    <t>CVST IP Events</t>
-  </si>
-  <si>
-    <t>CVST</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +954,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1112,23 +1049,19 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1182,7 +1115,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1207,7 +1140,6 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Erica Voss" id="{EB9A20AE-8085-4C48-BCF2-803E497D7A13}" userId="S::voss@ohdsi.org::e21aa6c4-14c9-4b4c-a4d1-3484a6f18292" providerId="AD"/>
   <person displayName="Evan Minty" id="{9FF2BF8F-1852-49DE-850B-EFCACC2A9C9D}" userId="S::minty@ohdsi.org::520eeff4-9b32-42a2-8097-0d6d10f61864" providerId="AD"/>
   <person displayName="Karthik Natarajan" id="{81BC2899-1C47-47BC-8295-E733F3BB12F8}" userId="S::karthik@ohdsi.org::fa465532-74ee-44c4-8014-9647a6aba326" providerId="AD"/>
 </personList>
@@ -1510,15 +1442,6 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B25" dT="2022-03-18T13:08:17.29" personId="{EB9A20AE-8085-4C48-BCF2-803E497D7A13}" id="{177A459B-659B-42A7-9540-9A093381EDA7}">
-    <text>Hope to get a rerun and fix this issue.</text>
-  </threadedComment>
-  <threadedComment ref="G25" dT="2022-03-18T13:13:39.26" personId="{EB9A20AE-8085-4C48-BCF2-803E497D7A13}" id="{BB3C6706-2B60-4215-8B0E-7C1893B8665E}">
-    <text>This should be fixed in rerun</text>
-  </threadedComment>
-  <threadedComment ref="J25" dT="2022-03-18T13:13:25.13" personId="{EB9A20AE-8085-4C48-BCF2-803E497D7A13}" id="{56E4A474-8AA0-4613-9E54-407860E5999E}">
-    <text>If we get a rerun this should be fixed</text>
-  </threadedComment>
   <threadedComment ref="B27" dT="2022-03-10T16:12:22.36" personId="{81BC2899-1C47-47BC-8295-E733F3BB12F8}" id="{6D55A5D5-3915-4137-83BA-C55866078943}">
     <text>This is probably already know, but wanted to confirm that we do not have tests run outside of our health system.</text>
   </threadedComment>
@@ -1712,11 +1635,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y33"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W5" sqref="W5"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1727,37 +1650,35 @@
     <col min="7" max="23" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B1" s="43" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B1" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
       <c r="F1" s="8"/>
-      <c r="G1" s="45" t="s">
+      <c r="G1" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
-      <c r="U1" s="45"/>
-      <c r="V1" s="45"/>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
@@ -1822,14 +1743,8 @@
       <c r="W2" s="1">
         <v>547</v>
       </c>
-      <c r="X2" s="1">
-        <v>620</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>6246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:23" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>37</v>
       </c>
@@ -1897,14 +1812,8 @@
       <c r="W3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="X3" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -1938,12 +1847,8 @@
       <c r="U4" s="13"/>
       <c r="V4" s="13"/>
       <c r="W4" s="13"/>
-      <c r="X4" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y4" s="13"/>
-    </row>
-    <row r="5" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>60</v>
       </c>
@@ -2009,14 +1914,8 @@
       <c r="W5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="X5" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y5" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>62</v>
       </c>
@@ -2082,14 +1981,8 @@
       <c r="W6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="X6" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y6" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>63</v>
       </c>
@@ -2155,14 +2048,8 @@
       <c r="W7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="X7" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y7" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>64</v>
       </c>
@@ -2228,14 +2115,8 @@
       <c r="W8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="X8" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y8" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>65</v>
       </c>
@@ -2301,14 +2182,8 @@
       <c r="W9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="X9" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y9" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>66</v>
       </c>
@@ -2374,14 +2249,8 @@
       <c r="W10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="X10" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y10" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>67</v>
       </c>
@@ -2447,89 +2316,77 @@
       <c r="W11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="X11" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y11" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>6</v>
+        <v>61</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="F12" s="11"/>
-      <c r="G12" s="7" t="s">
-        <v>6</v>
+      <c r="G12" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>6</v>
+        <v>70</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="O12" s="15"/>
-      <c r="P12" s="7" t="s">
-        <v>6</v>
+      <c r="P12" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="R12" s="7" t="s">
-        <v>6</v>
+        <v>70</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="S12" s="7" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="T12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="U12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="V12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="W12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="X12" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y12" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>61</v>
@@ -2559,11 +2416,11 @@
       <c r="K13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L13" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>9</v>
+      <c r="L13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>4</v>
@@ -2593,92 +2450,80 @@
       <c r="W13" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="X13" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y13" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="7" t="s">
+      <c r="C14" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="25"/>
+      <c r="G14" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="15"/>
-      <c r="P14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="7" t="s">
+      <c r="J14" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14" s="26"/>
+      <c r="O14" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="R14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="7" t="s">
+      <c r="R14" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="S14" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="T14" s="7" t="s">
+      <c r="T14" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="U14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="W14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="X14" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y14" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="U14" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="V14" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>61</v>
+        <v>74</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="C15" s="24" t="s">
         <v>4</v>
@@ -2693,45 +2538,45 @@
       <c r="G15" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>73</v>
+      <c r="H15" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="M15" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="N15" s="26"/>
-      <c r="O15" s="24" t="s">
-        <v>4</v>
-      </c>
+      <c r="L15" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="26"/>
       <c r="P15" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="R15" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="S15" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="T15" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="U15" s="23" t="s">
-        <v>73</v>
+      <c r="Q15" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="V15" s="24" t="s">
         <v>4</v>
@@ -2739,16 +2584,10 @@
       <c r="W15" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="X15" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y15" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>74</v>
+    </row>
+    <row r="16" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>75</v>
       </c>
       <c r="B16" s="24" t="s">
         <v>4</v>
@@ -2759,8 +2598,8 @@
       <c r="D16" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="24" t="s">
-        <v>4</v>
+      <c r="E16" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="F16" s="25"/>
       <c r="G16" s="24" t="s">
@@ -2812,16 +2651,10 @@
       <c r="W16" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="X16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y16" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>4</v>
@@ -2832,18 +2665,18 @@
       <c r="D17" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="23" t="s">
-        <v>24</v>
+      <c r="E17" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="F17" s="25"/>
       <c r="G17" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H17" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>4</v>
+      <c r="H17" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="J17" s="24" t="s">
         <v>4</v>
@@ -2864,17 +2697,17 @@
       <c r="P17" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="Q17" s="24" t="s">
-        <v>4</v>
+      <c r="Q17" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="R17" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="S17" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="T17" s="24" t="s">
-        <v>4</v>
+      <c r="S17" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="T17" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="U17" s="24" t="s">
         <v>4</v>
@@ -2885,125 +2718,107 @@
       <c r="W17" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="X17" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y17" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>4</v>
-      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="25"/>
-      <c r="G18" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="K18" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="M18" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="24" t="s">
-        <v>4</v>
-      </c>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
       <c r="O18" s="26"/>
-      <c r="P18" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q18" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="R18" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="S18" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="T18" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="U18" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="V18" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="W18" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="X18" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y18" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="30"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+    </row>
+    <row r="19" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>4</v>
+      </c>
       <c r="F19" s="25"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
+      <c r="G19" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="N19" s="24" t="s">
+        <v>4</v>
+      </c>
       <c r="O19" s="26"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y19" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P19" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="R19" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="S19" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="T19" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="U19" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="V19" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="W19" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>61</v>
+        <v>79</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="C20" s="24" t="s">
         <v>4</v>
@@ -3036,8 +2851,8 @@
       <c r="M20" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="24" t="s">
-        <v>4</v>
+      <c r="N20" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="O20" s="26"/>
       <c r="P20" s="24" t="s">
@@ -3064,16 +2879,10 @@
       <c r="W20" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="X20" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y20" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B21" s="24" t="s">
         <v>4</v>
@@ -3109,8 +2918,8 @@
       <c r="M21" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="23" t="s">
-        <v>73</v>
+      <c r="N21" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="O21" s="26"/>
       <c r="P21" s="24" t="s">
@@ -3119,8 +2928,8 @@
       <c r="Q21" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="24" t="s">
-        <v>4</v>
+      <c r="R21" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="S21" s="24" t="s">
         <v>4</v>
@@ -3137,19 +2946,13 @@
       <c r="W21" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="X21" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y21" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>4</v>
+        <v>81</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="C22" s="24" t="s">
         <v>4</v>
@@ -3192,8 +2995,8 @@
       <c r="Q22" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="23" t="s">
-        <v>70</v>
+      <c r="R22" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="S22" s="24" t="s">
         <v>4</v>
@@ -3210,16 +3013,10 @@
       <c r="W22" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="X22" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y22" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>61</v>
@@ -3283,19 +3080,13 @@
       <c r="W23" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="X23" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y23" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>61</v>
+        <v>83</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="C24" s="24" t="s">
         <v>4</v>
@@ -3328,10 +3119,10 @@
       <c r="M24" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="N24" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="O24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="24" t="s">
+        <v>4</v>
+      </c>
       <c r="P24" s="24" t="s">
         <v>4</v>
       </c>
@@ -3356,19 +3147,13 @@
       <c r="W24" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="X24" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y24" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="40" t="s">
-        <v>12</v>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="C25" s="24" t="s">
         <v>4</v>
@@ -3380,195 +3165,200 @@
         <v>4</v>
       </c>
       <c r="F25" s="25"/>
-      <c r="G25" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="30" t="s">
-        <v>73</v>
+      <c r="G25" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="K25" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
+      <c r="L25" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="M25" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="N25" s="24" t="s">
+        <v>4</v>
+      </c>
       <c r="O25" s="26"/>
       <c r="P25" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="Q25" s="22"/>
+      <c r="Q25" s="24" t="s">
+        <v>4</v>
+      </c>
       <c r="R25" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y25" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+      <c r="S25" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="T25" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="U25" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="V25" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="W25" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="K26" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="L26" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="M26" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="N26" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="O26" s="26"/>
-      <c r="P26" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q26" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="R26" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="S26" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="T26" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="U26" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="V26" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="W26" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="X26" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y26" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="P26" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="S26" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="U26" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="V26" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="W26" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="G27" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="K27" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="L27" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="M27" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="N27" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="O27" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="P27" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q27" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="R27" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="S27" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="T27" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="U27" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="V27" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="W27" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="X27" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y27" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B27" s="23" t="s">
         <v>61</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="25"/>
+      <c r="G27" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="N27" s="26"/>
+      <c r="O27" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="P27" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="R27" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="S27" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="T27" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="U27" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="V27" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="W27" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="C28" s="24" t="s">
         <v>4</v>
@@ -3601,10 +3391,10 @@
       <c r="M28" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="N28" s="26"/>
-      <c r="O28" s="24" t="s">
-        <v>4</v>
-      </c>
+      <c r="N28" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="O28" s="26"/>
       <c r="P28" s="24" t="s">
         <v>4</v>
       </c>
@@ -3623,34 +3413,28 @@
       <c r="U28" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="V28" s="24" t="s">
+      <c r="V28" s="32" t="s">
         <v>4</v>
       </c>
       <c r="W28" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="X28" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y28" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>4</v>
+    </row>
+    <row r="29" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="C29" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>4</v>
+      <c r="D29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="F29" s="25"/>
       <c r="G29" s="24" t="s">
@@ -3674,7 +3458,7 @@
       <c r="M29" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="N29" s="30" t="s">
+      <c r="N29" s="24" t="s">
         <v>4</v>
       </c>
       <c r="O29" s="26"/>
@@ -3696,34 +3480,28 @@
       <c r="U29" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="V29" s="32" t="s">
+      <c r="V29" s="24" t="s">
         <v>4</v>
       </c>
       <c r="W29" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="X29" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y29" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>61</v>
+        <v>90</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="C30" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>24</v>
+      <c r="D30" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="F30" s="25"/>
       <c r="G30" s="24" t="s">
@@ -3735,8 +3513,8 @@
       <c r="I30" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J30" s="24" t="s">
-        <v>4</v>
+      <c r="J30" s="23" t="s">
+        <v>73</v>
       </c>
       <c r="K30" s="24" t="s">
         <v>4</v>
@@ -3775,19 +3553,13 @@
       <c r="W30" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="X30" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y30" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>4</v>
+        <v>91</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>61</v>
       </c>
       <c r="C31" s="24" t="s">
         <v>4</v>
@@ -3808,8 +3580,8 @@
       <c r="I31" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J31" s="23" t="s">
-        <v>73</v>
+      <c r="J31" s="24" t="s">
+        <v>4</v>
       </c>
       <c r="K31" s="24" t="s">
         <v>4</v>
@@ -3817,8 +3589,8 @@
       <c r="L31" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="M31" s="24" t="s">
-        <v>4</v>
+      <c r="M31" s="31" t="s">
+        <v>9</v>
       </c>
       <c r="N31" s="24" t="s">
         <v>4</v>
@@ -3848,163 +3620,11 @@
       <c r="W31" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="X31" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y31" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="25"/>
-      <c r="G32" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H32" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="K32" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="M32" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="N32" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="O32" s="26"/>
-      <c r="P32" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q32" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="R32" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="S32" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="T32" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="U32" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="V32" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="W32" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="X32" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y32" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>133</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="25"/>
-      <c r="G33" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I33" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="J33" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="K33" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="L33" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="M33" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="N33" s="26"/>
-      <c r="O33" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="P33" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q33" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="R33" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="S33" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="T33" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="U33" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="V33" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="W33" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="X33" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y33" s="24" t="s">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="G1:W1"/>
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="G1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4027,10 +3647,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="43"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -4194,13 +3814,13 @@
       <c r="F1" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="38" t="s">
         <v>106</v>
       </c>
       <c r="J1" s="19" t="s">
@@ -4208,7 +3828,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="39" t="s">
         <v>78</v>
       </c>
       <c r="B2" t="s">
@@ -4219,7 +3839,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="39" t="s">
         <v>110</v>
       </c>
       <c r="B3" t="s">
@@ -4230,7 +3850,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="39" t="s">
         <v>84</v>
       </c>
       <c r="B4" t="s">
@@ -4241,7 +3861,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="39" t="s">
         <v>85</v>
       </c>
       <c r="B5" t="s">
@@ -4252,7 +3872,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="39" t="s">
         <v>114</v>
       </c>
       <c r="B6" t="s">
@@ -4263,7 +3883,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="39" t="s">
         <v>79</v>
       </c>
       <c r="B7" t="s">
@@ -4274,7 +3894,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="39" t="s">
         <v>60</v>
       </c>
       <c r="B8" t="s">
@@ -4285,7 +3905,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="39" t="s">
         <v>62</v>
       </c>
       <c r="B9" t="s">
@@ -4296,7 +3916,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="39" t="s">
         <v>63</v>
       </c>
       <c r="B10" t="s">
@@ -4307,7 +3927,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="39" t="s">
         <v>74</v>
       </c>
       <c r="B11" t="s">
@@ -4318,7 +3938,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="39" t="s">
         <v>72</v>
       </c>
       <c r="B12" t="s">
@@ -4329,7 +3949,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="39" t="s">
         <v>68</v>
       </c>
       <c r="B13" t="s">
@@ -4340,7 +3960,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="39" t="s">
         <v>69</v>
       </c>
       <c r="B14" t="s">
@@ -4351,7 +3971,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="39" t="s">
         <v>71</v>
       </c>
       <c r="B15" t="s">
@@ -4362,7 +3982,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="39" t="s">
         <v>87</v>
       </c>
       <c r="B16" t="s">
@@ -4373,7 +3993,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="39" t="s">
         <v>67</v>
       </c>
       <c r="B17" t="s">
@@ -4384,7 +4004,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="39" t="s">
         <v>90</v>
       </c>
       <c r="B18" t="s">
@@ -4395,7 +4015,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="39" t="s">
         <v>64</v>
       </c>
       <c r="B19" t="s">
@@ -4406,7 +4026,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="39" t="s">
         <v>91</v>
       </c>
       <c r="B20" t="s">
@@ -4419,7 +4039,7 @@
       <c r="F20" s="36"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="39" t="s">
         <v>65</v>
       </c>
       <c r="B21" t="s">
@@ -4430,7 +4050,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="39" t="s">
         <v>66</v>
       </c>
       <c r="B22" t="s">
@@ -4441,7 +4061,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="39" t="s">
         <v>80</v>
       </c>
       <c r="B23" t="s">
@@ -4452,7 +4072,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="39" t="s">
         <v>88</v>
       </c>
       <c r="B24" t="s">
@@ -4463,7 +4083,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="39" t="s">
         <v>124</v>
       </c>
       <c r="B25" t="s">
@@ -4474,7 +4094,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="39" t="s">
         <v>82</v>
       </c>
       <c r="B26" t="s">
@@ -4485,7 +4105,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="39" t="s">
         <v>127</v>
       </c>
       <c r="B27" t="s">
@@ -4496,7 +4116,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="39" t="s">
         <v>83</v>
       </c>
       <c r="B28" t="s">
@@ -4507,7 +4127,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="39" t="s">
         <v>129</v>
       </c>
       <c r="B29" t="s">
@@ -4518,12 +4138,12 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="40" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="40" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4535,6 +4155,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="90190796-45ad-4c96-92d3-17e9cee707e0">
+      <UserInfo>
+        <DisplayName>Vaccine Safety Members</DisplayName>
+        <AccountId>7</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F99C753980E8664FBAA371FB8558B22B" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="85d83d6bda4fc08e9bf065863f501aea">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67345901-881c-47f4-87d9-04d39beac4b5" xmlns:ns3="90190796-45ad-4c96-92d3-17e9cee707e0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="61fb9d9247372ca1a13760b2fbba4f4f" ns2:_="" ns3:_="">
     <xsd:import namespace="67345901-881c-47f4-87d9-04d39beac4b5"/>
@@ -4751,7 +4385,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4760,21 +4394,17 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="90190796-45ad-4c96-92d3-17e9cee707e0">
-      <UserInfo>
-        <DisplayName>Vaccine Safety Members</DisplayName>
-        <AccountId>7</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EA9993F-454C-481A-9EAF-5876C98FD002}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="90190796-45ad-4c96-92d3-17e9cee707e0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26566412-8A72-449D-9C6E-7C3541322229}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4793,20 +4423,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171B7CA1-9B56-435E-B90C-D8382A40D1B3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EA9993F-454C-481A-9EAF-5876C98FD002}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="90190796-45ad-4c96-92d3-17e9cee707e0"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/extras/CovidAesiReporting/extras/Censorship Worksheet.xlsx
+++ b/extras/CovidAesiReporting/extras/Censorship Worksheet.xlsx
@@ -59,7 +59,7 @@
     <author>tc={BE9E5AD4-BD47-47F5-A0F0-1858BA6BBD16}</author>
   </authors>
   <commentList>
-    <comment ref="Q25" authorId="0" shapeId="0">
+    <comment ref="Q24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B26" authorId="1" shapeId="0">
+    <comment ref="B25" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -91,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W26" authorId="2" shapeId="0">
+    <comment ref="W25" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B28" authorId="3" shapeId="0">
+    <comment ref="B27" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H28" authorId="4" shapeId="0">
+    <comment ref="H27" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I28" authorId="5" shapeId="0">
+    <comment ref="I27" authorId="5" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J28" authorId="6" shapeId="0">
+    <comment ref="J27" authorId="6" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -181,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K28" authorId="7" shapeId="0">
+    <comment ref="K27" authorId="7" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -198,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M28" authorId="8" shapeId="0">
+    <comment ref="M27" authorId="8" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -215,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N28" authorId="9" shapeId="0">
+    <comment ref="N27" authorId="9" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -236,7 +236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q28" authorId="10" shapeId="0">
+    <comment ref="Q27" authorId="10" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -253,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R28" authorId="11" shapeId="0">
+    <comment ref="R27" authorId="11" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -272,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S28" authorId="12" shapeId="0">
+    <comment ref="S27" authorId="12" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -289,7 +289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V28" authorId="13" shapeId="0">
+    <comment ref="V27" authorId="13" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -308,7 +308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W28" authorId="14" shapeId="0">
+    <comment ref="W27" authorId="14" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -330,7 +330,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="132">
   <si>
     <t>Censorship Key</t>
   </si>
@@ -561,9 +561,6 @@
   </si>
   <si>
     <t>CPRD_AURUM</t>
-  </si>
-  <si>
-    <t>ULSM</t>
   </si>
   <si>
     <t>APHM</t>
@@ -873,7 +870,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -913,21 +910,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -954,7 +936,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1013,38 +995,36 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1115,7 +1095,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
+              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1635,11 +1615,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1651,32 +1631,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="8"/>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -1886,8 +1866,8 @@
       <c r="M5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="26"/>
-      <c r="O5" s="24" t="s">
+      <c r="N5" s="25"/>
+      <c r="O5" s="23" t="s">
         <v>4</v>
       </c>
       <c r="P5" s="6" t="s">
@@ -1953,8 +1933,8 @@
       <c r="M6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N6" s="26"/>
-      <c r="O6" s="24" t="s">
+      <c r="N6" s="25"/>
+      <c r="O6" s="23" t="s">
         <v>4</v>
       </c>
       <c r="P6" s="6" t="s">
@@ -2154,8 +2134,8 @@
       <c r="M9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N9" s="26"/>
-      <c r="O9" s="24" t="s">
+      <c r="N9" s="25"/>
+      <c r="O9" s="23" t="s">
         <v>4</v>
       </c>
       <c r="P9" s="6" t="s">
@@ -2288,8 +2268,8 @@
       <c r="M11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="N11" s="26"/>
-      <c r="O11" s="24" t="s">
+      <c r="N11" s="25"/>
+      <c r="O11" s="23" t="s">
         <v>4</v>
       </c>
       <c r="P11" s="6" t="s">
@@ -2455,66 +2435,66 @@
       <c r="A14" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="23" t="s">
+      <c r="C14" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="K14" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="23" t="s">
+      <c r="K14" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="M14" s="23" t="s">
+      <c r="M14" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="N14" s="26"/>
-      <c r="O14" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="23" t="s">
+      <c r="N14" s="25"/>
+      <c r="O14" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="R14" s="23" t="s">
+      <c r="R14" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="S14" s="23" t="s">
+      <c r="S14" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="T14" s="23" t="s">
+      <c r="T14" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="U14" s="23" t="s">
+      <c r="U14" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="V14" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="W14" s="24" t="s">
+      <c r="V14" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="23" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2522,1102 +2502,1075 @@
       <c r="A15" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="K15" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="O15" s="26"/>
-      <c r="P15" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="T15" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="U15" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="V15" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="W15" s="24" t="s">
+      <c r="B15" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="25"/>
+      <c r="P15" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="V15" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="W15" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="23" t="s">
+      <c r="B16" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="K16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="L16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="M16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="N16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="O16" s="26"/>
-      <c r="P16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="R16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="S16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="T16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="U16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="V16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="W16" s="24" t="s">
+      <c r="F16" s="24"/>
+      <c r="G16" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="M16" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="O16" s="25"/>
+      <c r="P16" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q16" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="R16" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="S16" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="T16" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="U16" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="V16" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="W16" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="25"/>
-      <c r="G17" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="23" t="s">
+      <c r="B17" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="J17" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="L17" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="M17" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="N17" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="O17" s="26"/>
-      <c r="P17" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q17" s="23" t="s">
+      <c r="J17" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" s="25"/>
+      <c r="P17" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="R17" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="S17" s="23" t="s">
+      <c r="R17" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="S17" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="T17" s="23" t="s">
+      <c r="T17" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="U17" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="V17" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="W17" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="U17" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="V17" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="W17" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-    </row>
-    <row r="19" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
+      <c r="B18" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="25"/>
+      <c r="P18" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="U18" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="V18" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
         <v>78</v>
       </c>
       <c r="B19" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N19" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="O19" s="25"/>
+      <c r="P19" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="R19" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="S19" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="T19" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="U19" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="V19" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="W19" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="25"/>
+      <c r="P20" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="S20" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="T20" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="U20" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="V20" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="W20" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="K19" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="L19" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="M19" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="N19" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="O19" s="26"/>
-      <c r="P19" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q19" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="R19" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="S19" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="T19" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="U19" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="V19" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="W19" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="25"/>
-      <c r="G20" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="K20" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="M20" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="O20" s="26"/>
-      <c r="P20" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="R20" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="T20" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="U20" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="V20" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="W20" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="M21" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="N21" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="O21" s="26"/>
-      <c r="P21" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="24" t="s">
+      <c r="C21" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="24"/>
+      <c r="G21" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="25"/>
+      <c r="P21" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="23" t="s">
         <v>4</v>
       </c>
       <c r="R21" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="S21" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="U21" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="V21" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="W21" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="25"/>
-      <c r="G22" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="26"/>
-      <c r="P22" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="R22" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="S22" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="T22" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="U22" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="V22" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="W22" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+      <c r="C22" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="24"/>
+      <c r="G22" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="25"/>
+      <c r="P22" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="U22" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="V22" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="W22" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="26" t="s">
         <v>82</v>
       </c>
       <c r="B23" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K23" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" s="25"/>
+      <c r="O23" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="R23" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="S23" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="T23" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="U23" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="V23" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="W23" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="25"/>
+      <c r="P24" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="U24" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="V24" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="W24" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="M25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="N25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="O25" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="P25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="R25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="S25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="T25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="U25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="V25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="W25" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="J23" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="K23" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="L23" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="M23" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="N23" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="O23" s="26"/>
-      <c r="P23" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q23" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="R23" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="S23" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="T23" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="U23" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="V23" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="W23" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="K24" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="L24" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="N24" s="26"/>
-      <c r="O24" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="P24" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q24" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="R24" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="S24" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="T24" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="U24" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="V24" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="W24" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="25"/>
-      <c r="G25" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I25" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="J25" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="K25" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="L25" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="M25" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="N25" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="O25" s="26"/>
-      <c r="P25" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q25" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="R25" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="S25" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="T25" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="U25" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="V25" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="W25" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="G26" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="H26" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="J26" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="K26" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="L26" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="M26" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="N26" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="O26" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="P26" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q26" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="R26" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="S26" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="T26" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="U26" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="V26" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="W26" s="33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="C26" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="24"/>
+      <c r="G26" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" s="25"/>
+      <c r="O26" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="P26" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="S26" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="U26" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="V26" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="W26" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
         <v>87</v>
       </c>
       <c r="B27" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="24"/>
+      <c r="G27" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L27" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N27" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="O27" s="25"/>
+      <c r="P27" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="R27" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="S27" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="T27" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="U27" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="V27" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="W27" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="K27" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="L27" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="M27" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="N27" s="26"/>
-      <c r="O27" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="P27" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q27" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="R27" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="S27" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="T27" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="U27" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="V27" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="W27" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="25"/>
-      <c r="G28" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="J28" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="K28" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="L28" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="M28" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="N28" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="O28" s="26"/>
-      <c r="P28" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q28" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="R28" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="S28" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="T28" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="U28" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="V28" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="W28" s="24" t="s">
+      <c r="C28" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="24"/>
+      <c r="G28" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J28" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="K28" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="M28" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N28" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="O28" s="25"/>
+      <c r="P28" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q28" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="R28" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="S28" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="T28" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="U28" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="V28" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="W28" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="26" t="s">
         <v>89</v>
       </c>
       <c r="B29" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="24"/>
+      <c r="G29" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L29" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N29" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" s="25"/>
+      <c r="P29" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="R29" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="S29" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="T29" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="U29" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="V29" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="W29" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="J29" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="K29" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="L29" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="M29" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="N29" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="O29" s="26"/>
-      <c r="P29" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q29" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="R29" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="S29" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="T29" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="U29" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="V29" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="W29" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H30" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I30" s="24" t="s">
+      <c r="C30" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="24"/>
+      <c r="G30" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" s="23" t="s">
         <v>4</v>
       </c>
       <c r="J30" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="K30" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="L30" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="M30" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="N30" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="O30" s="26"/>
-      <c r="P30" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q30" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="R30" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="S30" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="T30" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="U30" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="V30" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="W30" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H31" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I31" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="J31" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="K31" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="L31" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="M31" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="K30" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L30" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="M30" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="N31" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="O31" s="26"/>
-      <c r="P31" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q31" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="R31" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="S31" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="T31" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="U31" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="V31" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="W31" s="24" t="s">
+      <c r="N30" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="O30" s="25"/>
+      <c r="P30" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="R30" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="S30" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="T30" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="U30" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="V30" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="W30" s="23" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3647,10 +3600,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="43"/>
+      <c r="A1" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="41"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -3662,10 +3615,10 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
         <v>93</v>
-      </c>
-      <c r="B3" t="s">
-        <v>94</v>
       </c>
       <c r="C3">
         <v>71</v>
@@ -3688,10 +3641,10 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
         <v>95</v>
-      </c>
-      <c r="B4" t="s">
-        <v>96</v>
       </c>
       <c r="C4">
         <v>21</v>
@@ -3744,10 +3697,10 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5">
         <v>71</v>
@@ -3797,354 +3750,354 @@
   <sheetData>
     <row r="1" spans="1:10" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
         <v>98</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="H1" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="I1" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="J1" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="19" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="C2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" t="s">
         <v>108</v>
       </c>
-      <c r="C2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="35"/>
+      <c r="F20" s="34"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" t="s">
         <v>110</v>
       </c>
-      <c r="B3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="B6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" t="s">
         <v>108</v>
       </c>
-      <c r="C14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D20" s="37"/>
-      <c r="F20" s="36"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="B25" t="s">
-        <v>125</v>
-      </c>
-      <c r="C25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" t="s">
-        <v>126</v>
-      </c>
-      <c r="C26" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="B27" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="B29" t="s">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="C29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="38" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -4155,17 +4108,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="90190796-45ad-4c96-92d3-17e9cee707e0">
-      <UserInfo>
-        <DisplayName>Vaccine Safety Members</DisplayName>
-        <AccountId>7</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4386,20 +4334,23 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="90190796-45ad-4c96-92d3-17e9cee707e0">
+      <UserInfo>
+        <DisplayName>Vaccine Safety Members</DisplayName>
+        <AccountId>7</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EA9993F-454C-481A-9EAF-5876C98FD002}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171B7CA1-9B56-435E-B90C-D8382A40D1B3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="90190796-45ad-4c96-92d3-17e9cee707e0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4424,9 +4375,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171B7CA1-9B56-435E-B90C-D8382A40D1B3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EA9993F-454C-481A-9EAF-5876C98FD002}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="90190796-45ad-4c96-92d3-17e9cee707e0"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/extras/CovidAesiReporting/extras/Censorship Worksheet.xlsx
+++ b/extras/CovidAesiReporting/extras/Censorship Worksheet.xlsx
@@ -557,9 +557,6 @@
     <t>IMASIS</t>
   </si>
   <si>
-    <t>UCHEALTH</t>
-  </si>
-  <si>
     <t>CPRD_AURUM</t>
   </si>
   <si>
@@ -726,6 +723,9 @@
   </si>
   <si>
     <t>† COVID + Controls</t>
+  </si>
+  <si>
+    <t>UCHDW</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1095,7 @@
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns="" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns="" r:embed="rId2"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1618,8 +1618,8 @@
   <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
+      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="16" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="B16" s="23" t="s">
         <v>4</v>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="17" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>4</v>
@@ -2701,7 +2701,7 @@
     </row>
     <row r="18" spans="1:23" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>61</v>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="19" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B19" s="23" t="s">
         <v>4</v>
@@ -2835,7 +2835,7 @@
     </row>
     <row r="20" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B20" s="23" t="s">
         <v>4</v>
@@ -2902,7 +2902,7 @@
     </row>
     <row r="21" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>61</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="22" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22" s="22" t="s">
         <v>61</v>
@@ -3036,7 +3036,7 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23" s="23" t="s">
         <v>4</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B24" s="23" t="s">
         <v>4</v>
@@ -3170,23 +3170,23 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="32" t="s">
-        <v>85</v>
-      </c>
       <c r="G25" s="31" t="s">
         <v>4</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>4</v>
       </c>
       <c r="O25" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P25" s="31" t="s">
         <v>4</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="26" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B26" s="22" t="s">
         <v>61</v>
@@ -3308,7 +3308,7 @@
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>4</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="28" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B28" s="22" t="s">
         <v>61</v>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="29" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B29" s="23" t="s">
         <v>4</v>
@@ -3509,7 +3509,7 @@
     </row>
     <row r="30" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B30" s="22" t="s">
         <v>61</v>
@@ -3601,7 +3601,7 @@
   <sheetData>
     <row r="1" spans="1:18" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" s="41"/>
     </row>
@@ -3615,10 +3615,10 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
         <v>92</v>
-      </c>
-      <c r="B3" t="s">
-        <v>93</v>
       </c>
       <c r="C3">
         <v>71</v>
@@ -3641,10 +3641,10 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
         <v>94</v>
-      </c>
-      <c r="B4" t="s">
-        <v>95</v>
       </c>
       <c r="C4">
         <v>21</v>
@@ -3697,10 +3697,10 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5">
         <v>71</v>
@@ -3750,100 +3750,100 @@
   <sheetData>
     <row r="1" spans="1:10" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
         <v>97</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="H1" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="I1" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="J1" s="19" t="s">
         <v>105</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" t="s">
         <v>107</v>
-      </c>
-      <c r="C2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" t="s">
         <v>109</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>110</v>
-      </c>
-      <c r="C3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
         <v>113</v>
       </c>
-      <c r="B6" t="s">
-        <v>114</v>
-      </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -3851,10 +3851,10 @@
         <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3862,10 +3862,10 @@
         <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -3873,10 +3873,10 @@
         <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3884,10 +3884,10 @@
         <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -3895,10 +3895,10 @@
         <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -3906,10 +3906,10 @@
         <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -3917,10 +3917,10 @@
         <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -3928,21 +3928,21 @@
         <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3950,21 +3950,21 @@
         <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -3972,21 +3972,21 @@
         <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D20" s="35"/>
       <c r="F20" s="34"/>
@@ -3996,10 +3996,10 @@
         <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4007,97 +4007,97 @@
         <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" t="s">
         <v>123</v>
       </c>
-      <c r="B25" t="s">
-        <v>124</v>
-      </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" t="s">
         <v>128</v>
       </c>
-      <c r="B29" t="s">
-        <v>129</v>
-      </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4108,12 +4108,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="90190796-45ad-4c96-92d3-17e9cee707e0">
+      <UserInfo>
+        <DisplayName>Vaccine Safety Members</DisplayName>
+        <AccountId>7</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4334,23 +4339,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="90190796-45ad-4c96-92d3-17e9cee707e0">
-      <UserInfo>
-        <DisplayName>Vaccine Safety Members</DisplayName>
-        <AccountId>7</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171B7CA1-9B56-435E-B90C-D8382A40D1B3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EA9993F-454C-481A-9EAF-5876C98FD002}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="90190796-45ad-4c96-92d3-17e9cee707e0"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4375,11 +4377,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EA9993F-454C-481A-9EAF-5876C98FD002}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{171B7CA1-9B56-435E-B90C-D8382A40D1B3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="90190796-45ad-4c96-92d3-17e9cee707e0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>